--- a/results/prediction/chg_RNeg_LNeg/reg_neg_look_neg/positive_clusters_k50.xlsx
+++ b/results/prediction/chg_RNeg_LNeg/reg_neg_look_neg/positive_clusters_k50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Hemisphere</t>
   </si>
@@ -43,37 +43,58 @@
     <t>L</t>
   </si>
   <si>
-    <t>Inferior_Parietal_Lobule</t>
+    <t>Medial_Frontal_Gyrus</t>
+  </si>
+  <si>
+    <t>Postcentral_Gyrus</t>
+  </si>
+  <si>
+    <t>Lingual_Gyrus</t>
+  </si>
+  <si>
+    <t>Cuneus</t>
   </si>
   <si>
     <t>Precuneus</t>
   </si>
   <si>
+    <t>Superior_Temporal_Gyrus</t>
+  </si>
+  <si>
+    <t>Transverse_Temporal_Gyrus</t>
+  </si>
+  <si>
+    <t>Insula</t>
+  </si>
+  <si>
+    <t>Middle_Frontal_Gyrus</t>
+  </si>
+  <si>
     <t>Superior_Frontal_Gyrus</t>
   </si>
   <si>
-    <t>Middle_Frontal_Gyrus</t>
+    <t>Fusiform_Gyrus</t>
+  </si>
+  <si>
+    <t>Inferior_Frontal_Gyrus</t>
+  </si>
+  <si>
+    <t>Precentral_Gyrus</t>
+  </si>
+  <si>
+    <t>Sub_Gyral</t>
   </si>
   <si>
     <t>Superior_Parietal_Lobule</t>
   </si>
   <si>
-    <t>Supramarginal_Gyrus</t>
-  </si>
-  <si>
-    <t>Medial_Frontal_Gyrus</t>
-  </si>
-  <si>
-    <t>Sub_Gyral</t>
-  </si>
-  <si>
-    <t>Inferior_Temporal_Gyrus</t>
-  </si>
-  <si>
     <t>Middle_Temporal_Gyrus</t>
   </si>
   <si>
-    <t>Lentiform_Nucleus</t>
+    <t>Cingulate_Gyrus</t>
+  </si>
+  <si>
+    <t>Pyramis</t>
   </si>
 </sst>
 </file>
@@ -431,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,19 +489,19 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>-56</v>
+        <v>64</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>-18</v>
       </c>
       <c r="F2">
-        <v>56</v>
+        <v>435</v>
       </c>
       <c r="G2">
-        <v>6.02</v>
+        <v>18.64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -491,19 +512,19 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>-2</v>
+        <v>-42</v>
       </c>
       <c r="D3">
-        <v>-66</v>
+        <v>-22</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>190</v>
+        <v>989</v>
       </c>
       <c r="G3">
-        <v>5.86</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -511,91 +532,91 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>-40</v>
+        <v>-14</v>
       </c>
       <c r="D4">
-        <v>-50</v>
+        <v>-92</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>-20</v>
       </c>
       <c r="F4">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G4">
-        <v>5.74</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>-90</v>
       </c>
       <c r="E5">
-        <v>-8</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G5">
-        <v>4.51</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>-10</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>-78</v>
       </c>
       <c r="E6">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6">
-        <v>3.74</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>-62</v>
       </c>
       <c r="D7">
-        <v>-48</v>
+        <v>-16</v>
       </c>
       <c r="E7">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="G7">
-        <v>3.62</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -603,45 +624,45 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>-30</v>
+        <v>-48</v>
       </c>
       <c r="D8">
-        <v>-68</v>
+        <v>-4</v>
       </c>
       <c r="E8">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>383</v>
       </c>
       <c r="G8">
-        <v>3.61</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>-46</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>-50</v>
+        <v>-14</v>
       </c>
       <c r="E9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="G9">
-        <v>3.52</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -649,68 +670,68 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>-4</v>
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="G11">
-        <v>3.48</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>-22</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>-10</v>
+        <v>42</v>
       </c>
       <c r="E12">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F12">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G12">
-        <v>3.16</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -718,45 +739,45 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>-36</v>
+        <v>-58</v>
       </c>
       <c r="E13">
-        <v>-22</v>
+        <v>-14</v>
       </c>
       <c r="F13">
-        <v>166</v>
+        <v>446</v>
       </c>
       <c r="G13">
-        <v>2.52</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>-54</v>
       </c>
       <c r="D14">
-        <v>-30</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>-10</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="G14">
-        <v>2.42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -764,68 +785,68 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>-18</v>
       </c>
       <c r="E15">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="G15">
-        <v>2.36</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
-        <v>-50</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>-40</v>
+        <v>28</v>
       </c>
       <c r="E16">
-        <v>-22</v>
+        <v>48</v>
       </c>
       <c r="F16">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="G16">
-        <v>2.06</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>-42</v>
       </c>
       <c r="D17">
-        <v>-2</v>
+        <v>-44</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="F17">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="G17">
-        <v>2.02</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -833,22 +854,183 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18">
+        <v>-34</v>
+      </c>
+      <c r="D18">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>125</v>
+      </c>
+      <c r="G18">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>-26</v>
+      </c>
+      <c r="E19">
+        <v>-14</v>
+      </c>
+      <c r="F19">
+        <v>94</v>
+      </c>
+      <c r="G19">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>-22</v>
+      </c>
+      <c r="D20">
+        <v>-52</v>
+      </c>
+      <c r="E20">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>-60</v>
+      </c>
+      <c r="D21">
+        <v>-20</v>
+      </c>
+      <c r="E21">
+        <v>38</v>
+      </c>
+      <c r="F21">
+        <v>210</v>
+      </c>
+      <c r="G21">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>48</v>
+      </c>
+      <c r="D22">
+        <v>-68</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>-26</v>
+      </c>
+      <c r="D23">
+        <v>-12</v>
+      </c>
+      <c r="E23">
+        <v>52</v>
+      </c>
+      <c r="F23">
+        <v>204</v>
+      </c>
+      <c r="G23">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>-6</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>46</v>
+      </c>
+      <c r="F24">
+        <v>74</v>
+      </c>
+      <c r="G24">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
         <v>-10</v>
       </c>
-      <c r="D18">
-        <v>48</v>
-      </c>
-      <c r="E18">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>55</v>
-      </c>
-      <c r="G18">
-        <v>1.76</v>
+      <c r="D25">
+        <v>-76</v>
+      </c>
+      <c r="E25">
+        <v>-36</v>
+      </c>
+      <c r="F25">
+        <v>53</v>
+      </c>
+      <c r="G25">
+        <v>5.99</v>
       </c>
     </row>
   </sheetData>

--- a/results/prediction/chg_RNeg_LNeg/reg_neg_look_neg/positive_clusters_k50.xlsx
+++ b/results/prediction/chg_RNeg_LNeg/reg_neg_look_neg/positive_clusters_k50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>Hemisphere</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Cuneus</t>
   </si>
   <si>
-    <t>Precuneus</t>
-  </si>
-  <si>
     <t>Superior_Temporal_Gyrus</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>Superior_Parietal_Lobule</t>
   </si>
   <si>
-    <t>Middle_Temporal_Gyrus</t>
+    <t>Culmen</t>
   </si>
   <si>
     <t>Cingulate_Gyrus</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +495,7 @@
         <v>-18</v>
       </c>
       <c r="F2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="G2">
         <v>18.64</v>
@@ -521,7 +518,7 @@
         <v>60</v>
       </c>
       <c r="F3">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="G3">
         <v>15.32</v>
@@ -544,7 +541,7 @@
         <v>-20</v>
       </c>
       <c r="F4">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G4">
         <v>13.08</v>
@@ -561,16 +558,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>-90</v>
+        <v>-92</v>
       </c>
       <c r="E5">
         <v>18</v>
       </c>
       <c r="F5">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="G5">
-        <v>11.62</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -581,19 +578,19 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>-10</v>
+        <v>-62</v>
       </c>
       <c r="D6">
-        <v>-78</v>
+        <v>-16</v>
       </c>
       <c r="E6">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="G6">
-        <v>11.27</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -601,45 +598,45 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>-62</v>
+        <v>-48</v>
       </c>
       <c r="D7">
-        <v>-16</v>
+        <v>-4</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>239</v>
+        <v>384</v>
       </c>
       <c r="G7">
-        <v>11.24</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>-48</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="G8">
-        <v>11.16</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -650,19 +647,19 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>-14</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>288</v>
+        <v>54</v>
       </c>
       <c r="G9">
-        <v>10.32</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -673,19 +670,19 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="G10">
-        <v>10.17</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -696,19 +693,19 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F11">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="G11">
-        <v>9.93</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -719,65 +716,65 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>42</v>
+        <v>-58</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>-14</v>
       </c>
       <c r="F12">
-        <v>83</v>
+        <v>400</v>
       </c>
       <c r="G12">
-        <v>9.800000000000001</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>-54</v>
       </c>
       <c r="D13">
-        <v>-58</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>-14</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>446</v>
+        <v>140</v>
       </c>
       <c r="G13">
-        <v>9.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14">
-        <v>-54</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>-18</v>
       </c>
       <c r="E14">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F14">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -785,45 +782,45 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>-18</v>
+        <v>28</v>
       </c>
       <c r="E15">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F15">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="G15">
-        <v>8.93</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>-42</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>-44</v>
       </c>
       <c r="E16">
-        <v>48</v>
+        <v>-14</v>
       </c>
       <c r="F16">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="G16">
-        <v>8.699999999999999</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -831,68 +828,68 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>-42</v>
+        <v>-34</v>
       </c>
       <c r="D17">
-        <v>-44</v>
+        <v>38</v>
       </c>
       <c r="E17">
-        <v>-14</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G17">
-        <v>8.67</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>-34</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>-26</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>-14</v>
       </c>
       <c r="F18">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="G18">
-        <v>8.35</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>-22</v>
       </c>
       <c r="D19">
-        <v>-26</v>
+        <v>-52</v>
       </c>
       <c r="E19">
-        <v>-14</v>
+        <v>62</v>
       </c>
       <c r="F19">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="G19">
-        <v>8.07</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -903,19 +900,19 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>-22</v>
+        <v>-44</v>
       </c>
       <c r="D20">
-        <v>-52</v>
+        <v>-48</v>
       </c>
       <c r="E20">
-        <v>62</v>
+        <v>-32</v>
       </c>
       <c r="F20">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G20">
-        <v>7.64</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -935,7 +932,7 @@
         <v>38</v>
       </c>
       <c r="F21">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="G21">
         <v>7.41</v>
@@ -943,25 +940,25 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>-26</v>
       </c>
       <c r="D22">
-        <v>-68</v>
+        <v>-12</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="G22">
-        <v>7.4</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -969,22 +966,22 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>-26</v>
+        <v>-6</v>
       </c>
       <c r="D23">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F23">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="G23">
-        <v>6.88</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -995,41 +992,18 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>-76</v>
       </c>
       <c r="E24">
-        <v>46</v>
+        <v>-36</v>
       </c>
       <c r="F24">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G24">
-        <v>6.82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>-10</v>
-      </c>
-      <c r="D25">
-        <v>-76</v>
-      </c>
-      <c r="E25">
-        <v>-36</v>
-      </c>
-      <c r="F25">
-        <v>53</v>
-      </c>
-      <c r="G25">
         <v>5.99</v>
       </c>
     </row>
